--- a/Data/sprague data/sprague-ubiomeJan2015.xlsx
+++ b/Data/sprague data/sprague-ubiomeJan2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="240" windowWidth="24500" windowHeight="26500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sprague-ubiomeJan2015.csv" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="172">
   <si>
-    <t>ï»¿"taxon"</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>Planococcaceae</t>
+  </si>
+  <si>
+    <t>taxon</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -922,28 +922,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1">
@@ -960,16 +960,16 @@
         <v>1447</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -986,16 +986,16 @@
         <v>1447</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1">
@@ -1012,16 +1012,16 @@
         <v>32640</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1038,16 +1038,16 @@
         <v>30651</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1">
@@ -1064,16 +1064,16 @@
         <v>2803</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1">
@@ -1090,16 +1090,16 @@
         <v>2803</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1">
@@ -1116,16 +1116,16 @@
         <v>2803</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1">
@@ -1142,16 +1142,16 @@
         <v>814</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1168,16 +1168,16 @@
         <v>633</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1194,16 +1194,16 @@
         <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1">
@@ -1220,16 +1220,16 @@
         <v>814</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1">
@@ -1246,16 +1246,16 @@
         <v>2803</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
@@ -1272,16 +1272,16 @@
         <v>814</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1">
@@ -1298,16 +1298,16 @@
         <v>1447</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1">
@@ -1324,16 +1324,16 @@
         <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1">
@@ -1350,16 +1350,16 @@
         <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1">
@@ -1376,16 +1376,16 @@
         <v>53165</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1">
@@ -1402,16 +1402,16 @@
         <v>52803</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1">
@@ -1428,16 +1428,16 @@
         <v>52803</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1">
@@ -1454,16 +1454,16 @@
         <v>421971</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1">
@@ -1480,16 +1480,16 @@
         <v>1000000</v>
       </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1506,16 +1506,16 @@
         <v>22152</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1">
@@ -1532,16 +1532,16 @@
         <v>452</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1">
@@ -1558,16 +1558,16 @@
         <v>34177</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1">
@@ -1584,16 +1584,16 @@
         <v>43580</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
         <v>49</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1">
@@ -1610,16 +1610,16 @@
         <v>43580</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
         <v>47</v>
       </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1">
@@ -1636,16 +1636,16 @@
         <v>34810</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1">
@@ -1662,16 +1662,16 @@
         <v>2893</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1688,16 +1688,16 @@
         <v>2893</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1">
@@ -1714,16 +1714,16 @@
         <v>62749</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1">
@@ -1740,16 +1740,16 @@
         <v>452</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1">
@@ -1766,16 +1766,16 @@
         <v>452</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1792,16 +1792,16 @@
         <v>452</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1">
@@ -1818,16 +1818,16 @@
         <v>452</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1">
@@ -1844,16 +1844,16 @@
         <v>452</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1">
@@ -1870,16 +1870,16 @@
         <v>5606</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1896,16 +1896,16 @@
         <v>1085</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1922,16 +1922,16 @@
         <v>2712</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1">
@@ -1948,16 +1948,16 @@
         <v>271</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1">
@@ -1974,16 +1974,16 @@
         <v>271</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1">
@@ -2000,16 +2000,16 @@
         <v>271</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1">
@@ -2026,16 +2026,16 @@
         <v>56872</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1">
@@ -2052,16 +2052,16 @@
         <v>2260</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1">
@@ -2078,16 +2078,16 @@
         <v>2260</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1">
@@ -2104,16 +2104,16 @@
         <v>452</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1">
@@ -2130,16 +2130,16 @@
         <v>1175</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1">
@@ -2156,16 +2156,16 @@
         <v>1627</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" t="s">
         <v>104</v>
       </c>
-      <c r="G48" t="s">
-        <v>105</v>
-      </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1">
@@ -2182,16 +2182,16 @@
         <v>1175</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2208,16 +2208,16 @@
         <v>1175</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1">
@@ -2234,16 +2234,16 @@
         <v>452</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" t="s">
         <v>149</v>
       </c>
-      <c r="G51" t="s">
-        <v>150</v>
-      </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1">
@@ -2260,16 +2260,16 @@
         <v>14286</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1">
@@ -2286,16 +2286,16 @@
         <v>6058</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1">
@@ -2312,16 +2312,16 @@
         <v>1447</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1">
@@ -2338,16 +2338,16 @@
         <v>1266</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1">
@@ -2364,16 +2364,16 @@
         <v>452</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1">
@@ -2390,16 +2390,16 @@
         <v>452</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8" hidden="1">
@@ -2416,16 +2416,16 @@
         <v>452</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1">
@@ -2442,16 +2442,16 @@
         <v>181</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1">
@@ -2468,16 +2468,16 @@
         <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1">
@@ -2494,16 +2494,16 @@
         <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:8" hidden="1">
@@ -2520,16 +2520,16 @@
         <v>271</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2546,16 +2546,16 @@
         <v>271</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:8" hidden="1">
@@ -2572,16 +2572,16 @@
         <v>557052</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1">
@@ -2598,16 +2598,16 @@
         <v>8499</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1">
@@ -2624,16 +2624,16 @@
         <v>8499</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1">
@@ -2650,16 +2650,16 @@
         <v>8499</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1">
@@ -2676,16 +2676,16 @@
         <v>17993</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1">
@@ -2702,16 +2702,16 @@
         <v>15552</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1">
@@ -2728,16 +2728,16 @@
         <v>17993</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1">
@@ -2754,16 +2754,16 @@
         <v>17993</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1">
@@ -2780,16 +2780,16 @@
         <v>15552</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2806,16 +2806,16 @@
         <v>13743</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2832,16 +2832,16 @@
         <v>1808</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1">
@@ -2858,16 +2858,16 @@
         <v>290416</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1">
@@ -2884,16 +2884,16 @@
         <v>52803</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2910,16 +2910,16 @@
         <v>40416</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1">
@@ -2936,16 +2936,16 @@
         <v>56691</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2962,16 +2962,16 @@
         <v>3436</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1">
@@ -2988,16 +2988,16 @@
         <v>257505</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3014,16 +3014,16 @@
         <v>257143</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
         <v>28</v>
       </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1">
@@ -3040,16 +3040,16 @@
         <v>452</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1">
@@ -3066,16 +3066,16 @@
         <v>723</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:8" hidden="1">
@@ -3092,16 +3092,16 @@
         <v>368807</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
         <v>16</v>
       </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
       <c r="H84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1">
@@ -3118,16 +3118,16 @@
         <v>723</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1">
@@ -3144,16 +3144,16 @@
         <v>2441</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1">
@@ -3170,16 +3170,16 @@
         <v>2441</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1">
@@ -3196,16 +3196,16 @@
         <v>362</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1">
@@ -3222,16 +3222,16 @@
         <v>362</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1">
@@ -3248,16 +3248,16 @@
         <v>452</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1">
@@ -3274,16 +3274,16 @@
         <v>452</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1">
@@ -3300,16 +3300,16 @@
         <v>452</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1">
@@ -3326,16 +3326,16 @@
         <v>452</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3352,16 +3352,16 @@
         <v>452</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1">
@@ -3378,16 +3378,16 @@
         <v>452</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1">
@@ -3404,16 +3404,16 @@
         <v>452</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1">
@@ -3430,16 +3430,16 @@
         <v>132640</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1">
@@ -3456,16 +3456,16 @@
         <v>62116</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3482,16 +3482,16 @@
         <v>904</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3508,16 +3508,16 @@
         <v>59222</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3534,16 +3534,16 @@
         <v>1989</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1">
@@ -3560,16 +3560,16 @@
         <v>62297</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1">
@@ -3586,16 +3586,16 @@
         <v>62297</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1">
@@ -3612,16 +3612,16 @@
         <v>452</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3638,16 +3638,16 @@
         <v>452</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1">
@@ -3664,16 +3664,16 @@
         <v>290145</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1">
@@ -3690,16 +3690,16 @@
         <v>290145</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1">
@@ -3716,16 +3716,16 @@
         <v>1808</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1">
@@ -3742,16 +3742,16 @@
         <v>1537</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3768,16 +3768,16 @@
         <v>1266</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3794,16 +3794,16 @@
         <v>271</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1">
@@ -3820,16 +3820,16 @@
         <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
@@ -3846,16 +3846,16 @@
         <v>6058</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
@@ -3872,16 +3872,16 @@
         <v>6058</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3898,16 +3898,16 @@
         <v>362</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3924,16 +3924,16 @@
         <v>5696</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
@@ -3950,16 +3950,16 @@
         <v>27667</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3976,16 +3976,16 @@
         <v>2984</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4002,16 +4002,16 @@
         <v>6148</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4028,16 +4028,16 @@
         <v>995</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4054,16 +4054,16 @@
         <v>633</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4080,16 +4080,16 @@
         <v>452</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4106,16 +4106,16 @@
         <v>13653</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4132,16 +4132,16 @@
         <v>633</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4158,16 +4158,16 @@
         <v>2170</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
@@ -4184,16 +4184,16 @@
         <v>2170</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
@@ -4210,16 +4210,16 @@
         <v>27667</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1">
@@ -4236,16 +4236,16 @@
         <v>353617</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
         <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1">
@@ -4262,16 +4262,16 @@
         <v>362</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4288,16 +4288,16 @@
         <v>362</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1">
@@ -4314,16 +4314,16 @@
         <v>132640</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1">
@@ -4340,16 +4340,16 @@
         <v>271</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:8" hidden="1">
@@ -4366,16 +4366,16 @@
         <v>2351</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
@@ -4392,16 +4392,16 @@
         <v>2351</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1">
@@ -4418,16 +4418,16 @@
         <v>2351</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1">
@@ -4444,16 +4444,16 @@
         <v>2351</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1">
@@ -4470,16 +4470,16 @@
         <v>309494</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
         <v>20</v>
       </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
       <c r="H137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1">
@@ -4496,16 +4496,16 @@
         <v>308137</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
         <v>22</v>
       </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
       <c r="H138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1">
@@ -4522,16 +4522,16 @@
         <v>904</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F139" t="s">
+        <v>116</v>
+      </c>
+      <c r="G139" t="s">
         <v>117</v>
       </c>
-      <c r="G139" t="s">
-        <v>118</v>
-      </c>
       <c r="H139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4548,16 +4548,16 @@
         <v>904</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4574,16 +4574,16 @@
         <v>16637</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4600,16 +4600,16 @@
         <v>13743</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4626,16 +4626,16 @@
         <v>1266</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:8" hidden="1">
@@ -4652,16 +4652,16 @@
         <v>452</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1">
@@ -4678,16 +4678,16 @@
         <v>2351</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4704,16 +4704,16 @@
         <v>2351</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:8" hidden="1">
@@ -4730,16 +4730,16 @@
         <v>22152</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1">
@@ -4756,16 +4756,16 @@
         <v>22152</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4782,16 +4782,16 @@
         <v>452</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1">
@@ -4808,16 +4808,16 @@
         <v>131826</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4834,16 +4834,16 @@
         <v>452</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4860,16 +4860,16 @@
         <v>131193</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:8" hidden="1">
@@ -4886,16 +4886,16 @@
         <v>132640</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
